--- a/Dev_Roadmap.xlsx
+++ b/Dev_Roadmap.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Integration Tests</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>TensorFlow.js</t>
+  </si>
+  <si>
+    <t>NLP, Stats, ML</t>
+  </si>
+  <si>
+    <t>https://winkjs.org/</t>
   </si>
 </sst>
 </file>
@@ -559,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -735,6 +741,14 @@
         <v>36</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dev_Roadmap.xlsx
+++ b/Dev_Roadmap.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580"/>
+    <workbookView xWindow="1460" yWindow="1200" windowWidth="13740" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Integration Tests</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>https://winkjs.org/</t>
+  </si>
+  <si>
+    <t>Link to search</t>
   </si>
 </sst>
 </file>
@@ -567,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -741,12 +744,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
